--- a/covid19_drdfm/data/example-output/NC/df.xlsx
+++ b/covid19_drdfm/data/example-output/NC/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5833333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.01641256801089576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.1416141872127477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.5740740740740742</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.01654234290598871</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.1346111222028757</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.5648148148148149</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.01313876023032227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.1431322029558679</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.5648148148148149</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.0142863300790798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.1515578313879243</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.5648148148148149</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.01399342268712452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.154207881201466</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.5648148148148149</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.0160772725674826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.1642750943729929</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.5648148148148149</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.01465698665738796</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.1550181804588299</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.5648148148148149</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.01479821815624314</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.136006660185376</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.5648148148148149</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.01258429701185579</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.1732841562407965</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.5648148148148149</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.01430028682299017</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.1509882697866281</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.5648148148148149</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.0140567075679257</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.174449522025673</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.01572731918101039</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0.5535820303008403</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.1759317641857433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.01489924774394703</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.1516439272059782</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.5277777777777779</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.01722896394352179</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.1287123754540367</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.5000000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.01525359625680668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.1393326755372499</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.4722222222222223</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.01457536148347455</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.1539544048624733</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.4444444444444445</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.01386585508606681</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.1574304905200886</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.4074074074074075</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.01629082909311636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.197264293931099</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.3796296296296297</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.01613598263187564</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.09113644601975956</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.01665926525966199</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.1494868479058825</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.01556584791535009</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.1507418158719649</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.01561655974985105</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.1396005991175817</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.287037037037037</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.01540378339664568</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.1570771121511022</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.01450551704338225</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>0.4204534413328795</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.1629361479142965</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.01512053759387394</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.1441706872734151</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.2685185185185185</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.01445006026894379</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.1292159664282901</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.2685185185185185</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.01430636560110803</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.1291185589466315</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.2685185185185185</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.01440625605930686</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.14135451801906</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.2592592592592594</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.01468404282380918</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.1445234603649167</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.2592592592592594</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.01598476364619819</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.1637747845012331</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.2500000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.0167386701529537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.1511772229915351</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.2500000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.01654649085088489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.129329589206066</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.2407407407407408</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.01535231885293604</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.1447858119379732</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.2314814814814816</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.01559193455233438</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.1241444549864227</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.2222222222222223</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.01595117755688004</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.1593424925110893</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.212962962962963</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.01969247936421098</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0.1069964931886963</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.1837925285036726</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.212962962962963</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.01671070218951054</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.1396046896500887</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.212962962962963</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.01655947177520198</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.1437081561413192</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.2222222222222223</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.01591138357173992</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.1333402579099737</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.2222222222222223</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.01513789061215141</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.1544816921064887</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.2222222222222223</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.01534048879650349</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.1657716706195233</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.2222222222222223</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.01505255069414686</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.1648209412027093</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.212962962962963</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.01543176048496239</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.1394926982359174</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.212962962962963</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.01613036766230088</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.1255106003932823</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.01447592199732101</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.1335675680272583</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.1944444444444445</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.01411975754730733</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.1650950066649357</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.1851851851851853</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.01479043368961994</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.1772813616173816</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.1851851851851853</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.01553211123379329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0.1746701315336956</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.1846578666966219</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.1759259259259259</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.01606028873592205</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.1463255472675</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.01467219295853695</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.125191450160271</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.01335922612278609</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.1332188202707781</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.1574074074074074</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.01421457292983637</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.1637081393603301</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.1574074074074074</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.01401505753600283</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.1719024323403258</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.1481481481481482</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.01544319110157825</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.162324398253487</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.1481481481481482</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.01492762055107606</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.1457179170368834</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.1574074074074074</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.01481098963481992</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.1259283104172704</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.1574074074074074</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.0159444562467044</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.1658746882001032</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.1574074074074074</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.01678744185969989</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.1478371634589722</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.1481481481481482</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.01609186963454036</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.1707950794895692</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.1481481481481482</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.01405158221781118</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.6668600650271708</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.1931102390941445</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.138888888888889</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.0150734736360853</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.138604466857269</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.1203703703703704</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.01605046593885178</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.1273493667919852</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.01346644060773823</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.1286198898134005</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.1018518518518519</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.01463532180139587</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.1608846273592443</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.1018518518518519</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.01405102230050032</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.1782188674398349</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.1018518518518519</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.01571877860321387</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.1657862572291244</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.1018518518518519</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.01471602476173635</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.1520227663615525</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.1018518518518519</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.01406112590422057</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.1231330955547758</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.1018518518518519</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.0158553613128289</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.1530929054794174</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.09259259259259267</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.01575547928668431</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.1569764792397463</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.09259259259259267</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.01584120914931605</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.1765733399585057</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.08333333333333337</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.01300448600110842</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0.09373199117970868</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.1752780961389281</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.07407407407407413</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.01353070956265297</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.1636896903185663</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.06481481481481483</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.01401809148897725</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.1296256887599996</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.05555555555555558</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.01529400289604356</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.1356963132036463</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.05555555555555558</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.01531251889880305</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.1523856780549097</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.01565727678466873</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.1702424628252344</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.0140870484983656</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.1711183158696652</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.01415224715200589</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.14292782531885</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.05555555555555558</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.01349704956954607</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.1637593963675354</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.05555555555555558</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.01466166653114286</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.1215206211031671</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0.06481481481481483</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.01526872047821322</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.1591492834616884</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.06481481481481483</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.01536436187972362</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.187338750883621</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.05555555555555558</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.01560340574828016</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.1839798907190451</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.01480793614674695</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.1465195944113444</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.01425301788942076</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.1398006900519211</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.01486593256974675</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.1430184850541355</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0.02777777777777779</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.01597876472831633</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.1599126507034125</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.0159558893798243</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.1705027540295568</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.01611287664872139</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.1658586043788372</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.01661625739619967</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.1534199550919753</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.01644291019144696</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.1373933024290439</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.01556983563983411</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.1615336853194398</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.01628451549394183</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.1663273995684337</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.0153308673104217</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.171263353381844</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.01348588253366328</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>0.3837611532987937</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.1818886178487657</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0.02777777777777779</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.01383530653655426</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.1475122835358274</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.02777777777777779</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.01541556124686341</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.1479232873517527</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.00480200502465155</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.001499307528696984</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.1681931322880758</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.1234007979889477</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.5740740740740742</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>0.02636777480281552</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.01567541978754533</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.4814814814814816</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.02593267830447844</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.03853854344167992</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.02615223778617152</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.08478911224811593</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.287037037037037</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.01608998755941189</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0.04039282529993142</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.2222222222222223</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.01615217757491195</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.09919181739099697</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.01417969551947411</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.1320524211998614</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.01637842201867986</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.1715079981895439</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.1944444444444445</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.01657966698051416</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.1524644326538492</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.1851851851851853</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.01533317438846318</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.1002320879520419</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.01503133236158678</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.1396381340536455</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1574074074074074</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.01512237820926162</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.148544618123197</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.1481481481481482</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.01487306708646012</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.1287384460064143</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.1481481481481482</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.01498532023041114</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.1411664087280492</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.138888888888889</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.01525901596849458</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.1260232652660913</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.1296296296296297</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.01562639434115277</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.3220291758200093</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.1018518518518519</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.01664410444555126</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.09259259259259267</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.01640238834635637</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.1004345561353536</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.07407407407407413</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.01668079926257875</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0.1274523091627857</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.08061706846648591</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.06481481481481483</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.01534486121587732</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.1423754748790725</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.04629629629629634</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.01501081100356454</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.1361328517509833</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.02777777777777779</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.01330897340165782</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.1262268079481415</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0.0092592592592593</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.01399076533207068</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.129332263150227</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.01207922072687802</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.1636851410291822</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.01027837174226363</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.1806569158845539</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.01717945398487886</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.201895510451512</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.01546275497764827</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.1518785755702463</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0.0092592592592593</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.01509075245206907</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.1374549831302638</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0.01851851851851855</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.01659187789797591</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.1455472188802995</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.01787362816367065</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.1649265341002221</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.01804796924738936</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/NC/df.xlsx
+++ b/covid19_drdfm/data/example-output/NC/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,69 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mask2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +530,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.5833333333333333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +571,43 @@
         <v>0.01641256801089576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.8127007005891788</v>
       </c>
       <c r="D3" t="n">
+        <v>0.3768058808595598</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.1416141872127477</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.5740740740740742</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.004163145133798899</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003602264316064704</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +618,43 @@
         <v>0.01654234290598871</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.8104710024462333</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3982563377158147</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1346111222028757</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.5648148148148149</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.004350163513336679</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.003773969315922561</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +665,43 @@
         <v>0.01313876023032227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.61504186742355</v>
       </c>
       <c r="D5" t="n">
+        <v>0.02990839959934438</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.1431322029558679</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.5648148148148149</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.004706216076951827</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.004089833757991845</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +712,43 @@
         <v>0.0142863300790798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6138489311350771</v>
       </c>
       <c r="D6" t="n">
+        <v>0.195327254530321</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.1515578313879243</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.5648148148148149</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.006219961270517563</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.005393881499028539</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +759,43 @@
         <v>0.01399342268712452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6126661495263873</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1514425433113396</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.154207881201466</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.5648148148148149</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.005812248480551404</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.005057432021759493</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +806,43 @@
         <v>0.0160772725674826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6062822746481717</v>
       </c>
       <c r="D8" t="n">
+        <v>0.4903445252794985</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.1642750943729929</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.5648148148148149</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.005252778602187073</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.004591288621887621</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +853,43 @@
         <v>0.01465698665738796</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6061789485631953</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2845930856928361</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1550181804588299</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.5648148148148149</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.003354077097490096</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00298170246119227</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +900,43 @@
         <v>0.01479821815624314</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6060760533041368</v>
       </c>
       <c r="D10" t="n">
+        <v>0.3057195151209717</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.136006660185376</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.5648148148148149</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.003538547220315134</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003150393460046407</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +947,43 @@
         <v>0.01258429701185579</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6264073421982728</v>
       </c>
       <c r="D11" t="n">
+        <v>0.002081646087483735</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.1732841562407965</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.5648148148148149</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.003565194586284497</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003184218769918053</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +994,43 @@
         <v>0.01430028682299017</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6255664253412606</v>
       </c>
       <c r="D12" t="n">
+        <v>0.2505959177439673</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.1509882697866281</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.5648148148148149</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.005837990769360471</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.005135459033065938</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +1041,43 @@
         <v>0.0140567075679257</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6247335018951339</v>
       </c>
       <c r="D13" t="n">
+        <v>0.2143869224456428</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.174449522025673</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.5555555555555556</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.005496825797368061</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.00485502405319763</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1088,43 @@
         <v>0.01572731918101039</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5535820303008403</v>
+        <v>0.690905603405175</v>
       </c>
       <c r="D14" t="n">
+        <v>0.4071084701840049</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.1759317641857433</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.5555555555555556</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.004436393598018566</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.003663327944934752</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1135,43 @@
         <v>0.01489924774394703</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6902244390183059</v>
       </c>
       <c r="D15" t="n">
+        <v>0.2875336470367451</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.1516439272059782</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.5277777777777779</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.003331040716985754</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.002732955067297319</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1182,43 @@
         <v>0.01722896394352179</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6895505982833392</v>
       </c>
       <c r="D16" t="n">
+        <v>0.6267741827388562</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.1287123754540367</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.5000000000000002</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.006438291022129767</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.005398733079403167</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1229,43 @@
         <v>0.01525359625680668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6112758355354269</v>
       </c>
       <c r="D17" t="n">
+        <v>0.5324788290651095</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.1393326755372499</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.4722222222222223</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.006084530023902195</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.005109676962625628</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1276,43 @@
         <v>0.01457536148347455</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6111266433306404</v>
       </c>
       <c r="D18" t="n">
+        <v>0.4329981676926942</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.1539544048624733</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.4444444444444445</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.005163337548794188</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.00433604774593972</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1323,43 @@
         <v>0.01386585508606681</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6109782359539541</v>
       </c>
       <c r="D19" t="n">
+        <v>0.3289812060639983</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.1574304905200886</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.4074074074074075</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.004200614749519842</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.003526811355893199</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1370,43 @@
         <v>0.01629082909311636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.703677122188297</v>
       </c>
       <c r="D20" t="n">
+        <v>0.4864062054045727</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.197264293931099</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.3796296296296297</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004756390913011302</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.004013771075783548</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1417,43 @@
         <v>0.01613598263187564</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.702956522956638</v>
       </c>
       <c r="D21" t="n">
+        <v>0.4649912210599511</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.09113644601975956</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.3611111111111111</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.004553908891042376</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.003853255955493678</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1464,43 @@
         <v>0.01665926525966199</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.7022434899642243</v>
       </c>
       <c r="D22" t="n">
+        <v>0.5420921707960692</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.1494868479058825</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.3055555555555556</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.005256006335760905</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.004464836928737169</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1511,43 @@
         <v>0.01556584791535009</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6520235829036224</v>
       </c>
       <c r="D23" t="n">
+        <v>0.3665515557370094</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.1507418158719649</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.2962962962962963</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.004422272956050717</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.003765132554784232</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1558,43 @@
         <v>0.01561655974985105</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6516070937039125</v>
       </c>
       <c r="D24" t="n">
+        <v>0.3744125331868916</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.1396005991175817</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.287037037037037</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.004487297736345903</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.003832559328277337</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1605,43 @@
         <v>0.01540378339664568</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6511942442567864</v>
       </c>
       <c r="D25" t="n">
+        <v>0.3439811153640341</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.1570771121511022</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.2777777777777778</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.004200859222298915</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.003599802698458279</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1652,43 @@
         <v>0.01450551704338225</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4204534413328795</v>
+        <v>0.6733807667293669</v>
       </c>
       <c r="D26" t="n">
+        <v>0.4610827805998269</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.1629361479142965</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.2777777777777778</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.004209223687042251</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.004454255302958699</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1699,43 @@
         <v>0.01512053759387394</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6730214542521967</v>
       </c>
       <c r="D27" t="n">
+        <v>0.5497485639359979</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.1441706872734151</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.2685185185185185</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.005018266963390946</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.005151422169233828</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1746,43 @@
         <v>0.01445006026894379</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6726642409560217</v>
       </c>
       <c r="D28" t="n">
+        <v>0.4516301126797704</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.1292159664282901</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.2685185185185185</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.004112548362578688</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.004384608466940144</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1793,43 @@
         <v>0.01430636560110803</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6627192674235867</v>
       </c>
       <c r="D29" t="n">
+        <v>0.01755810883522138</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.1291185589466315</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.2685185185185185</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.004135945745941767</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.004410899160625401</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1840,43 @@
         <v>0.01440625605930686</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6606640314386607</v>
       </c>
       <c r="D30" t="n">
+        <v>0.03069651863914336</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.14135451801906</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.2592592592592594</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.004257041852312086</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.004520513195648557</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1887,43 @@
         <v>0.01468404282380918</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6586378093629925</v>
       </c>
       <c r="D31" t="n">
+        <v>0.06967940877018892</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.1445234603649167</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.2592592592592594</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.004615596777219865</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.004832765384141975</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1934,43 @@
         <v>0.01598476364619819</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.685036615881127</v>
       </c>
       <c r="D32" t="n">
+        <v>0.3152956902526452</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.1637747845012331</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.2500000000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.004363280910782734</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.00462343682432332</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1981,43 @@
         <v>0.0167386701529537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6842114734032128</v>
       </c>
       <c r="D33" t="n">
+        <v>0.4261616267949172</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.1511772229915351</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.2500000000000001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.005372675856678726</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.005491154570892627</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +2028,43 @@
         <v>0.01654649085088489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6833965557101669</v>
       </c>
       <c r="D34" t="n">
+        <v>0.3995392157726905</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.129329589206066</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.2407407407407408</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.005119902566660624</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.00528128074142894</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +2075,43 @@
         <v>0.01535231885293604</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6383338469719787</v>
       </c>
       <c r="D35" t="n">
+        <v>0.4495784077401775</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.1447858119379732</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.2314814814814816</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.005421895978070386</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.005544936609321701</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +2122,43 @@
         <v>0.01559193455233438</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6380245248912929</v>
       </c>
       <c r="D36" t="n">
+        <v>0.4840590445156582</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.1241444549864227</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.2222222222222223</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.005730373726910412</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.00581405399605911</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +2169,43 @@
         <v>0.01595117755688004</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6377175290485033</v>
       </c>
       <c r="D37" t="n">
+        <v>0.5359254000075302</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.1593424925110893</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.212962962962963</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.00619856388311397</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.006219445093169957</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +2216,43 @@
         <v>0.01969247936421098</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1069964931886963</v>
+        <v>0.665682895861506</v>
       </c>
       <c r="D38" t="n">
+        <v>0.9549814204998652</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.1837925285036726</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.212962962962963</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.008287125399441968</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.008333500278600721</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2263,43 @@
         <v>0.01671070218951054</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6652341370889242</v>
       </c>
       <c r="D39" t="n">
+        <v>0.5235480847883784</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.1396046896500887</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.212962962962963</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.004326058542974618</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.00495517383758135</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2310,43 @@
         <v>0.01655947177520198</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6647892697973268</v>
       </c>
       <c r="D40" t="n">
+        <v>0.5033765436279367</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.1437081561413192</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.2222222222222223</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.004140737030218017</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.004800159102304149</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2357,43 @@
         <v>0.01591138357173992</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6268868121162584</v>
       </c>
       <c r="D41" t="n">
+        <v>0.325105057933135</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.1333402579099737</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.2222222222222223</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.004848160756875802</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.005407236928388009</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2404,43 @@
         <v>0.01513789061215141</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6267059637938656</v>
       </c>
       <c r="D42" t="n">
+        <v>0.2138371101765219</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.1544816921064887</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.2222222222222223</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.003814113734025854</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.004527576443976476</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2451,43 @@
         <v>0.01534048879650349</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6265260741489905</v>
       </c>
       <c r="D43" t="n">
+        <v>0.2443920281944931</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.1657716706195233</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.2222222222222223</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.00408223905762363</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.004759538292842059</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2498,43 @@
         <v>0.01505255069414686</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6238853609138124</v>
       </c>
       <c r="D44" t="n">
+        <v>0.3162344361384881</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.1648209412027093</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.212962962962963</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.004768248881860628</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.005348206092488865</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2545,43 @@
         <v>0.01543176048496239</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6237157549364298</v>
       </c>
       <c r="D45" t="n">
+        <v>0.3715791295118612</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.1394926982359174</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.212962962962963</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.005264175736263005</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.005774558470627904</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2592,43 @@
         <v>0.01613036766230088</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.623547024572438</v>
       </c>
       <c r="D46" t="n">
+        <v>0.473333868956031</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.1255106003932823</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.2037037037037037</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.006186307794604023</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.006564721535670769</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2639,43 @@
         <v>0.01447592199732101</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.535877609457229</v>
       </c>
       <c r="D47" t="n">
+        <v>0.3439422751326773</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.1335675680272583</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.1944444444444445</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.005332036198096436</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.005838328527127149</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2686,43 @@
         <v>0.01411975754730733</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5358604848846651</v>
       </c>
       <c r="D48" t="n">
+        <v>0.2919474908439308</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.1650950066649357</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.1851851851851853</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.004842594688795363</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.005423352022085158</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2733,43 @@
         <v>0.01479043368961994</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5358433342284763</v>
       </c>
       <c r="D49" t="n">
+        <v>0.3891644028508319</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.1772813616173816</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.1851851851851853</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.005723136165976105</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.006177891500623287</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2780,43 @@
         <v>0.01553211123379329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1746701315336956</v>
+        <v>0.6285471037560081</v>
       </c>
       <c r="D50" t="n">
+        <v>0.5111315806292873</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.1846578666966219</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.1759259259259259</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.00418622448031576</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.005110045171447411</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2827,43 @@
         <v>0.01606028873592205</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6284039634264296</v>
       </c>
       <c r="D51" t="n">
+        <v>0.5877011255353866</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.1463255472675</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.004890308056194219</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.005711608017796799</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2874,43 @@
         <v>0.01467219295853695</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6282613456512675</v>
       </c>
       <c r="D52" t="n">
+        <v>0.3858140020688546</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.125191450160271</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.003038015565871579</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.004130788039954442</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2921,43 @@
         <v>0.01335922612278609</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5536879884448026</v>
       </c>
       <c r="D53" t="n">
+        <v>0.08152256547920082</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.1332188202707781</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.1574074074074074</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.00240885927655879</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.00359415411171424</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2968,43 @@
         <v>0.01421457292983637</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.553564704527357</v>
       </c>
       <c r="D54" t="n">
+        <v>0.2050342159335573</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.1637081393603301</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.1574074074074074</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.003543568676254901</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.004563326753922649</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +3015,43 @@
         <v>0.01401505753600283</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5534414714338505</v>
       </c>
       <c r="D55" t="n">
+        <v>0.1752660181776935</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.1719024323403258</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.1481481481481482</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.00327110427495778</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.00433119052006869</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +3062,43 @@
         <v>0.01544319110157825</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6190200631412454</v>
       </c>
       <c r="D56" t="n">
+        <v>0.4091539355682182</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.162324398253487</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.1481481481481482</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.004199940597818735</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.005124599353336323</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +3109,43 @@
         <v>0.01492762055107606</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6188335611099336</v>
       </c>
       <c r="D57" t="n">
+        <v>0.3341707048896972</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.1457179170368834</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.1574074074074074</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.003510750737094856</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.004536694975230557</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +3156,43 @@
         <v>0.01481098963481992</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6186481441005833</v>
       </c>
       <c r="D58" t="n">
+        <v>0.3171587445628113</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.1259283104172704</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.1574074074074074</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.003353775870157752</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.004403137581412252</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +3203,43 @@
         <v>0.0159444562467044</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6596303606119822</v>
       </c>
       <c r="D59" t="n">
+        <v>0.445619212708588</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.1658746882001032</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.1574074074074074</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.003047568807494714</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.004142176034038965</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +3250,43 @@
         <v>0.01678744185969989</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6593511725108555</v>
       </c>
       <c r="D60" t="n">
+        <v>0.5694136168216849</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.1478371634589722</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.1481481481481482</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.004187628852716248</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.005115887318484905</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +3297,43 @@
         <v>0.01609186963454036</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.659073391246924</v>
       </c>
       <c r="D61" t="n">
+        <v>0.4696123788101174</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.1707950794895692</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.1481481481481482</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.00327496659749616</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.004337186049158883</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +3344,43 @@
         <v>0.01405158221781118</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6668600650271708</v>
+        <v>0.6504465062498797</v>
       </c>
       <c r="D62" t="n">
+        <v>0.1960403166862253</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.1931102390941445</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.138888888888889</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.002199466119327474</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.003782602447569968</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3391,43 @@
         <v>0.0150734736360853</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6500443248187501</v>
       </c>
       <c r="D63" t="n">
+        <v>0.3445849756222139</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.138604466857269</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.1203703703703704</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.003562260554594444</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.004943637815937874</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3438,43 @@
         <v>0.01605046593885178</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6496456004099186</v>
       </c>
       <c r="D64" t="n">
+        <v>0.486605180837305</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.1273493667919852</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.1111111111111111</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.004865162895491128</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.006053571434750977</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3485,43 @@
         <v>0.01346644060773823</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5793105284999933</v>
       </c>
       <c r="D65" t="n">
+        <v>0.1422890033234658</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.1286198898134005</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.1018518518518519</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.003129737973043347</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.004569714853795719</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3532,43 @@
         <v>0.01463532180139587</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5790148647572674</v>
       </c>
       <c r="D66" t="n">
+        <v>0.3111390109668918</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.1608846273592443</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.1018518518518519</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0046811077402275</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.005891819981685049</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3579,43 @@
         <v>0.01405102230050032</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5787203529445279</v>
       </c>
       <c r="D67" t="n">
+        <v>0.2252310558611423</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.1782188674398349</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.1018518518518519</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.003893726512780164</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.005217361986624489</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3626,43 @@
         <v>0.01571877860321387</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5722262520241493</v>
       </c>
       <c r="D68" t="n">
+        <v>0.3512849473193896</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.1657862572291244</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.1018518518518519</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.004325561359204673</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.005583774319936464</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3673,43 @@
         <v>0.01471602476173635</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5721488608699982</v>
       </c>
       <c r="D69" t="n">
+        <v>0.2056634760024834</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.1520227663615525</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.1018518518518519</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.002988112589876426</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.004439776866668917</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3720,43 @@
         <v>0.01406112590422057</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5720716858997148</v>
       </c>
       <c r="D70" t="n">
+        <v>0.110588981127133</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.1231330955547758</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.1018518518518519</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.002114713068748125</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.003691963614185462</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3767,43 @@
         <v>0.0158553613128289</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6862923255583683</v>
       </c>
       <c r="D71" t="n">
+        <v>0.2833507578941464</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.1530929054794174</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.09259259259259267</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.003534975917447466</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.00490227317290242</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3814,43 @@
         <v>0.01575547928668431</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6852840056158859</v>
       </c>
       <c r="D72" t="n">
+        <v>0.2698779135537777</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.1569764792397463</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.09259259259259267</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.003410526363945243</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.004793888012702192</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3861,43 @@
         <v>0.01584120914931605</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6842893886218676</v>
       </c>
       <c r="D73" t="n">
+        <v>0.2833636009597384</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.1765733399585057</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.08333333333333337</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.003533574610047745</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.004896816017551654</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3908,43 @@
         <v>0.01300448600110842</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09373199117970868</v>
+        <v>0.5680176675071413</v>
       </c>
       <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.1752780961389281</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.07407407407407413</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.003133804000654958</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.003592915325410572</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3955,43 @@
         <v>0.01353070956265297</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5673426685223302</v>
       </c>
       <c r="D75" t="n">
+        <v>0.0743479309370401</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.1636896903185663</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.06481481481481483</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.003820876781021909</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.004185470672475863</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +4002,43 @@
         <v>0.01401809148897725</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5666692901998602</v>
       </c>
       <c r="D76" t="n">
+        <v>0.1430566077814962</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.1296256887599996</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.05555555555555558</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.00445628955020008</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.00473384494227411</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +4049,43 @@
         <v>0.01529400289604356</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6525026483868849</v>
       </c>
       <c r="D77" t="n">
+        <v>0.3440188359460429</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.1356963132036463</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.05555555555555558</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.004098264623750063</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.004434045013280395</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +4096,43 @@
         <v>0.01531251889880305</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6519875383122887</v>
       </c>
       <c r="D78" t="n">
+        <v>0.3467710082830754</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.1523856780549097</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.004120123903921148</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.004458475679018095</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +4143,43 @@
         <v>0.01565727678466873</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6514774733073692</v>
       </c>
       <c r="D79" t="n">
+        <v>0.3969303295532043</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.1702424628252344</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.004577242752059207</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.004854412051548136</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +4190,43 @@
         <v>0.0140870484983656</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.523719881327292</v>
       </c>
       <c r="D80" t="n">
+        <v>0.2411487455101128</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.1711183158696652</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.004702155079180141</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.004966670560040614</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +4237,43 @@
         <v>0.01415224715200589</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5235445714597471</v>
       </c>
       <c r="D81" t="n">
+        <v>0.2489430723378021</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.14292782531885</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.05555555555555558</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.004774658938630759</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.005034115755484111</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +4284,43 @@
         <v>0.01349704956954607</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5233686318864484</v>
       </c>
       <c r="D82" t="n">
+        <v>0.1520610961838281</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.1637593963675354</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.05555555555555558</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.003886269256561312</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.004281176550456505</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +4331,43 @@
         <v>0.01466166653114286</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5876777013887396</v>
       </c>
       <c r="D83" t="n">
+        <v>0.430484021329824</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.1215206211031671</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.06481481481481483</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.004163176282621968</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.004522979691084998</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +4378,43 @@
         <v>0.01526872047821322</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5876444599347872</v>
       </c>
       <c r="D84" t="n">
+        <v>0.5179585923996123</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.1591492834616884</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.06481481481481483</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.004963720771543329</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.005211742632251526</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +4425,43 @@
         <v>0.01536436187972362</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5876112781853986</v>
       </c>
       <c r="D85" t="n">
+        <v>0.531124495409245</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.187338750883621</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.05555555555555558</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.00508212893464379</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.005318099328977051</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +4472,43 @@
         <v>0.01560340574828016</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.5870127890150081</v>
       </c>
       <c r="D86" t="n">
+        <v>0.4961308467316542</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.1839798907190451</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.005167700956475506</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.005464655490546862</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +4519,43 @@
         <v>0.01480793614674695</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5869798233462838</v>
       </c>
       <c r="D87" t="n">
+        <v>0.3803347796565342</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.1465195944113444</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.004099228590549205</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.004556958728232609</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4566,43 @@
         <v>0.01425301788942076</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5869469189197293</v>
       </c>
       <c r="D88" t="n">
+        <v>0.2994957629439482</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.1398006900519211</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.03703703703703703</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.003351745057866656</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.003923235608501403</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +4613,43 @@
         <v>0.01486593256974675</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6665496599234835</v>
       </c>
       <c r="D89" t="n">
+        <v>0.2355534028719772</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.1430184850541355</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.02777777777777779</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.003114287304892307</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.003724867391903829</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +4660,43 @@
         <v>0.01597876472831633</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6660179913416118</v>
       </c>
       <c r="D90" t="n">
+        <v>0.3980068029651556</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.1599126507034125</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.03703703703703703</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.004599856471835377</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.004997391587398527</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,13 +4707,43 @@
         <v>0.0159558893798243</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6654915520587076</v>
       </c>
       <c r="D91" t="n">
+        <v>0.395413047632893</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.1705027540295568</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.03703703703703703</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.004570331520998226</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.00497643121650137</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +4754,43 @@
         <v>0.01611287664872139</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.639396504667791</v>
       </c>
       <c r="D92" t="n">
+        <v>0.3725785083028733</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.1658586043788372</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.004100939492717099</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.004579906546227035</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +4801,43 @@
         <v>0.01661625739619967</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.6391482520003915</v>
       </c>
       <c r="D93" t="n">
+        <v>0.4471624559400111</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.1534199550919753</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.004780406979064919</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.005164110992943425</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4848,43 @@
         <v>0.01644291019144696</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.638901549575883</v>
       </c>
       <c r="D94" t="n">
+        <v>0.4233851513771548</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.1373933024290439</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.004556971312017119</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.004977459780766766</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4895,43 @@
         <v>0.01556983563983411</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.56468179054076</v>
       </c>
       <c r="D95" t="n">
+        <v>0.3955355494242605</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.1615336853194398</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.003741465551306682</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.004285311383977318</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4942,43 @@
         <v>0.01628451549394183</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5645904161011449</v>
       </c>
       <c r="D96" t="n">
+        <v>0.5002102737859411</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.1663273995684337</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.03703703703703703</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.004698843180486505</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.005106622035673511</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4989,43 @@
         <v>0.0153308673104217</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5644992154583256</v>
       </c>
       <c r="D97" t="n">
+        <v>0.3624321570566212</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.171263353381844</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.03703703703703703</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.003430545881641998</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.00402783226778141</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +5036,43 @@
         <v>0.01348588253366328</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3837611532987937</v>
+        <v>0.5790454370096407</v>
       </c>
       <c r="D98" t="n">
+        <v>0.5812373025770745</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.1818886178487657</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.02777777777777779</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.005951680783510432</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.001341759147658734</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +5083,43 @@
         <v>0.01383530653655426</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5785884805895869</v>
       </c>
       <c r="D99" t="n">
+        <v>0.6300397006545222</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.1475122835358274</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.02777777777777779</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.006379758086515377</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.001737458974840836</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.5323557818948107</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.4870099196976854</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +5130,43 @@
         <v>0.01541556124686341</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5781333065191985</v>
       </c>
       <c r="D100" t="n">
+        <v>0.8577241770112563</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.1479232873517527</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.008450405932123664</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.00353490238687466</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.6503643866889103</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.4959848842701937</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +5177,43 @@
         <v>0.00480200502465155</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.03383572492529785</v>
       </c>
       <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.01035883672261774</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.005193357782336948</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.6417595925893406</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.5540859707132735</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +5224,43 @@
         <v>0.001499307528696984</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.01738909468245109</v>
       </c>
       <c r="D102" t="n">
+        <v>0.5626106957697854</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.1681931322880758</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.75</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.006320845674429915</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.001774879187261503</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.6019843708841864</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.4504015115729806</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +5271,43 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1274523091627857</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0.3896252049417645</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.1234007979889477</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.5740740740740742</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.004710530784602016</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0004284208195784408</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.6227061199402932</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.4659896079357582</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +5318,43 @@
         <v>0.02636777480281552</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1274523091627857</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
+        <v>0.2189334429501779</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.01567541978754533</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.4814814814814816</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.005062252482742481</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0007564767982863188</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.7043638598647818</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.5470004723665565</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +5365,43 @@
         <v>0.02593267830447844</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.9904193139763813</v>
       </c>
       <c r="D105" t="n">
+        <v>0.2106204673989735</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.03853854344167992</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.3518518518518519</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.004959355665266719</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.0006959663541228436</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.5630871893932742</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.5366084081247048</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +5412,43 @@
         <v>0.02615223778617152</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.9812344351329731</v>
       </c>
       <c r="D106" t="n">
+        <v>0.2943947283587998</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.08478911224811593</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.287037037037037</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.005702257395650731</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.00135706097200552</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.5010097462463781</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.4251299008030232</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +5459,43 @@
         <v>0.01608998755941189</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.8079159226589567</v>
       </c>
       <c r="D107" t="n">
+        <v>0.3580264083780454</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.04039282529993142</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.2222222222222223</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.00661041857811347</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.002158796106878912</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.6918078848011238</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.6204534718941899</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +5506,43 @@
         <v>0.01615217757491195</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.8043926096114216</v>
       </c>
       <c r="D108" t="n">
+        <v>0.3675358785313151</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.09919181739099697</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.2037037037037037</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.006672804325360632</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.002238064314887929</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.7129686539643515</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.5845536136041568</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +5553,43 @@
         <v>0.01417969551947411</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.8009581754266438</v>
       </c>
       <c r="D109" t="n">
+        <v>0.08135192671359696</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.1320524211998614</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.2037037037037037</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.004021214584979792</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.9202739485468434</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +5600,43 @@
         <v>0.01637842201867986</v>
       </c>
       <c r="C110" t="n">
+        <v>0.7271656228026375</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.7578401373180927</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1715079981895439</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.1944444444444445</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.01286667190468845</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.007187984271684807</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
         <v>1</v>
       </c>
-      <c r="D110" t="n">
-        <v>0.1715079981895439</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.1944444444444445</v>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +5647,43 @@
         <v>0.01657966698051416</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.7259150553922487</v>
       </c>
       <c r="D111" t="n">
+        <v>0.7831821938217305</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.1524644326538492</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.1851851851851853</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.01291547455116384</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.0073959515387781</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.08069189568882251</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.1639111950873878</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5694,43 @@
         <v>0.01533317438846318</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.7246833326629634</v>
       </c>
       <c r="D112" t="n">
+        <v>0.598245951765469</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.1002320879520419</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.01104277992576013</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.005955742385610575</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.459302836069892</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.4870099196976854</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5741,43 @@
         <v>0.01503133236158678</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5995301709907779</v>
       </c>
       <c r="D113" t="n">
+        <v>0.4203986572860262</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.1396381340536455</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.1574074074074074</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.01117648898317765</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.006221082318469316</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.562033541136184</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.4888993859234766</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5788,43 @@
         <v>0.01512237820926162</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5989441181374278</v>
       </c>
       <c r="D114" t="n">
+        <v>0.4284464509077354</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.148544618123197</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.1481481481481482</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.01109459250371138</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.006295506136437774</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.4482395293704451</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.4905526688710439</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5835,43 @@
         <v>0.01487306708646012</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5983618044523089</v>
       </c>
       <c r="D115" t="n">
+        <v>0.3871606516904618</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.1287384460064143</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.1481481481481482</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.01056708168084085</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.00598307567692124</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.4568443234700149</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.4815777042985357</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5882,43 @@
         <v>0.01498532023041114</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5264809783341123</v>
       </c>
       <c r="D116" t="n">
+        <v>0.5947385675206264</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.1411664087280492</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.138888888888889</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.01096875460092927</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.006457835579087296</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.7262270611994028</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.4870099196976854</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5929,43 @@
         <v>0.01525901596849458</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5264629541439521</v>
       </c>
       <c r="D117" t="n">
+        <v>0.6294571823327376</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.1260232652660913</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.1296296296296297</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.01114852318336286</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.006737465211553679</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.6124232404345773</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5976,43 @@
         <v>0.01562639434115277</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5264449196883164</v>
       </c>
       <c r="D118" t="n">
+        <v>0.6779211236746141</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.3220291758200093</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.1018518518518519</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.01146047510206436</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.007124578183947346</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.4001229256299938</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.4272555503070383</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +6023,43 @@
         <v>0.01664410444555126</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.5968405884300015</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>0.6284727778477338</v>
       </c>
       <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.09259259259259267</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.009624381293808699</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.00567286338654642</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.2076565106681886</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.4213509683514407</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +6070,43 @@
         <v>0.01640238834635637</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.596772875033647</v>
       </c>
       <c r="D120" t="n">
+        <v>0.5941217511042856</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.1004345561353536</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.07407407407407413</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.00918902472677079</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.005412180744077203</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.4984634296250768</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.4870099196976854</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +6117,43 @@
         <v>0.01668079926257875</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1274523091627857</v>
+        <v>0.596705363100434</v>
       </c>
       <c r="D121" t="n">
+        <v>0.6353299727919356</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.08061706846648591</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.06481481481481483</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.009452295963768852</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.005743407385508797</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.7377293880059705</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.5687293339631554</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +6167,40 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.1423754748790725</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.04629629629629634</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.003018300511297309</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.004741802405530219</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.8120993941522521</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.8630136986301371</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +6214,40 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.1361328517509833</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.02777777777777779</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.002584750251538562</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.004363822892069758</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.02888752304855557</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.05314123760037787</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +6261,40 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.1262268079481415</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.0092592592592593</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0003262474110046752</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.002428057408452782</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.3406796031258231</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.4631554085970713</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +6308,40 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.129332263150227</v>
       </c>
-      <c r="E125" t="n">
-        <v>0</v>
+      <c r="F125" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.005000068677341136</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.00641053263414232</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.5308631135305997</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.4870099196976854</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +6355,40 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.1636851410291822</v>
       </c>
-      <c r="E126" t="n">
-        <v>0</v>
+      <c r="F126" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.002426036771281621</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.004205717299792153</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.6034770392483975</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.4870099196976854</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +6402,40 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.1806569158845539</v>
       </c>
-      <c r="E127" t="n">
-        <v>0</v>
+      <c r="F127" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.002127395665646422</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.545614189129862</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.4891355692017005</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +6449,40 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.201895510451512</v>
       </c>
-      <c r="E128" t="n">
-        <v>0</v>
+      <c r="F128" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.006762533525473107</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.007893444829011593</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.5908332601633154</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.4848842701936703</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +6496,40 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.1518785755702463</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.0092592592592593</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.004467040567595774</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.00592685773042605</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.5056633593818596</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.4896079357581483</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +6543,40 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.1374549831302638</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.01851851851851855</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.003965531413770151</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.005491922494280657</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.4409517955922381</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.4844119036372225</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +6590,40 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.1455472188802995</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.003731608466364503</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.005285559466864224</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.511634032838704</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.4870099196976854</v>
       </c>
     </row>
     <row r="132">
@@ -2687,10 +6637,40 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.1649265341002221</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.00546857793276666</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.00676186634451385</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.5278777768021775</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.4870099196976854</v>
       </c>
     </row>
     <row r="133">
@@ -2708,6 +6688,36 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.005727596188011254</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.006976584346111352</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.5764334006497497</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.4912612187057157</v>
       </c>
     </row>
   </sheetData>
